--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H2">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I2">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J2">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.415956</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N2">
-        <v>37.247868</v>
+        <v>59.532062</v>
       </c>
       <c r="O2">
-        <v>0.8598042313376485</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P2">
-        <v>0.8598042313376485</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q2">
-        <v>17.851346999248</v>
+        <v>29.71465483049399</v>
       </c>
       <c r="R2">
-        <v>160.662122993232</v>
+        <v>267.431893474446</v>
       </c>
       <c r="S2">
-        <v>0.2550081218001356</v>
+        <v>0.2768095503272414</v>
       </c>
       <c r="T2">
-        <v>0.2550081218001356</v>
+        <v>0.2768095503272414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H3">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I3">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J3">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.237639</v>
       </c>
       <c r="O3">
-        <v>0.1209020654395331</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P3">
-        <v>0.1209020654395331</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q3">
-        <v>2.510181555781778</v>
+        <v>2.614299417543</v>
       </c>
       <c r="R3">
-        <v>22.591634002036</v>
+        <v>23.528694757887</v>
       </c>
       <c r="S3">
-        <v>0.03585817271627843</v>
+        <v>0.02435374229715783</v>
       </c>
       <c r="T3">
-        <v>0.03585817271627843</v>
+        <v>0.02435374229715783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H4">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I4">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J4">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2786096666666666</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N4">
-        <v>0.8358289999999999</v>
+        <v>1.666838</v>
       </c>
       <c r="O4">
-        <v>0.01929370322281843</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P4">
-        <v>0.01929370322281843</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q4">
-        <v>0.4005779206217777</v>
+        <v>0.8319805188059999</v>
       </c>
       <c r="R4">
-        <v>3.605201285595999</v>
+        <v>7.487824669253999</v>
       </c>
       <c r="S4">
-        <v>0.005722292170818623</v>
+        <v>0.007750389651350536</v>
       </c>
       <c r="T4">
-        <v>0.005722292170818623</v>
+        <v>0.007750389651350534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.589574</v>
+        <v>1.497411</v>
       </c>
       <c r="H5">
-        <v>4.768721999999999</v>
+        <v>4.492233</v>
       </c>
       <c r="I5">
-        <v>0.3279022207198702</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J5">
-        <v>0.3279022207198702</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.415956</v>
+        <v>0.009795</v>
       </c>
       <c r="N5">
-        <v>37.247868</v>
+        <v>0.029385</v>
       </c>
       <c r="O5">
-        <v>0.8598042313376485</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="P5">
-        <v>0.8598042313376485</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="Q5">
-        <v>19.736080842744</v>
+        <v>0.014667140745</v>
       </c>
       <c r="R5">
-        <v>177.624727584696</v>
+        <v>0.132004266705</v>
       </c>
       <c r="S5">
-        <v>0.2819317168399559</v>
+        <v>0.0001366330740629476</v>
       </c>
       <c r="T5">
-        <v>0.2819317168399559</v>
+        <v>0.0001366330740629476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>4.768721999999999</v>
       </c>
       <c r="I6">
-        <v>0.3279022207198702</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J6">
-        <v>0.3279022207198702</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.745879666666666</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N6">
-        <v>5.237639</v>
+        <v>59.532062</v>
       </c>
       <c r="O6">
-        <v>0.1209020654395331</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P6">
-        <v>0.1209020654395331</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q6">
-        <v>2.775204925261999</v>
+        <v>31.543539307196</v>
       </c>
       <c r="R6">
-        <v>24.97684432735799</v>
+        <v>283.8918537647639</v>
       </c>
       <c r="S6">
-        <v>0.03964405574724196</v>
+        <v>0.2938466888194854</v>
       </c>
       <c r="T6">
-        <v>0.03964405574724197</v>
+        <v>0.2938466888194854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>4.768721999999999</v>
       </c>
       <c r="I7">
-        <v>0.3279022207198702</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J7">
-        <v>0.3279022207198702</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2786096666666666</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N7">
-        <v>0.8358289999999999</v>
+        <v>5.237639</v>
       </c>
       <c r="O7">
-        <v>0.01929370322281843</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P7">
-        <v>0.01929370322281843</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q7">
-        <v>0.4428706822819999</v>
+        <v>2.775204925261999</v>
       </c>
       <c r="R7">
-        <v>3.985836140537999</v>
+        <v>24.97684432735799</v>
       </c>
       <c r="S7">
-        <v>0.006326448132672278</v>
+        <v>0.02585267208419223</v>
       </c>
       <c r="T7">
-        <v>0.00632644813267228</v>
+        <v>0.02585267208419222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7159183333333333</v>
+        <v>1.589574</v>
       </c>
       <c r="H8">
-        <v>2.147755</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I8">
-        <v>0.1476818388788872</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J8">
-        <v>0.1476818388788872</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.415956</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N8">
-        <v>37.247868</v>
+        <v>1.666838</v>
       </c>
       <c r="O8">
-        <v>0.8598042313376485</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P8">
-        <v>0.8598042313376485</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q8">
-        <v>8.88881052626</v>
+        <v>0.8831874490039998</v>
       </c>
       <c r="R8">
-        <v>79.99929473633999</v>
+        <v>7.948687041035998</v>
       </c>
       <c r="S8">
-        <v>0.1269774699597921</v>
+        <v>0.008227412433631032</v>
       </c>
       <c r="T8">
-        <v>0.1269774699597921</v>
+        <v>0.00822741243363103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7159183333333333</v>
+        <v>1.589574</v>
       </c>
       <c r="H9">
-        <v>2.147755</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I9">
-        <v>0.1476818388788872</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J9">
-        <v>0.1476818388788872</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.745879666666666</v>
+        <v>0.009795</v>
       </c>
       <c r="N9">
-        <v>5.237639</v>
+        <v>0.029385</v>
       </c>
       <c r="O9">
-        <v>0.1209020654395331</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="P9">
-        <v>0.1209020654395331</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="Q9">
-        <v>1.249907261160556</v>
+        <v>0.01556987733</v>
       </c>
       <c r="R9">
-        <v>11.249165350445</v>
+        <v>0.14012889597</v>
       </c>
       <c r="S9">
-        <v>0.0178550393483658</v>
+        <v>0.0001450425982382499</v>
       </c>
       <c r="T9">
-        <v>0.0178550393483658</v>
+        <v>0.0001450425982382498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7159183333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H10">
-        <v>2.147755</v>
+        <v>3.453</v>
       </c>
       <c r="I10">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J10">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2786096666666666</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N10">
-        <v>0.8358289999999999</v>
+        <v>59.532062</v>
       </c>
       <c r="O10">
-        <v>0.01929370322281843</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P10">
-        <v>0.01929370322281843</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q10">
-        <v>0.1994617682105555</v>
+        <v>22.84046778733333</v>
       </c>
       <c r="R10">
-        <v>1.795155913895</v>
+        <v>205.564210086</v>
       </c>
       <c r="S10">
-        <v>0.002849329570729338</v>
+        <v>0.2127724401828589</v>
       </c>
       <c r="T10">
-        <v>0.002849329570729339</v>
+        <v>0.2127724401828589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.104440333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H11">
-        <v>3.313321</v>
+        <v>3.453</v>
       </c>
       <c r="I11">
-        <v>0.22782735371401</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J11">
-        <v>0.22782735371401</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.415956</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N11">
-        <v>37.247868</v>
+        <v>5.237639</v>
       </c>
       <c r="O11">
-        <v>0.8598042313376485</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P11">
-        <v>0.8598042313376485</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q11">
-        <v>13.712682583292</v>
+        <v>2.009507496333333</v>
       </c>
       <c r="R11">
-        <v>123.414143249628</v>
+        <v>18.085567467</v>
       </c>
       <c r="S11">
-        <v>0.1958869227377649</v>
+        <v>0.01871974854200261</v>
       </c>
       <c r="T11">
-        <v>0.1958869227377649</v>
+        <v>0.01871974854200261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.104440333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H12">
-        <v>3.313321</v>
+        <v>3.453</v>
       </c>
       <c r="I12">
-        <v>0.22782735371401</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J12">
-        <v>0.22782735371401</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.745879666666666</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N12">
-        <v>5.237639</v>
+        <v>1.666838</v>
       </c>
       <c r="O12">
-        <v>0.1209020654395331</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P12">
-        <v>0.1209020654395331</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q12">
-        <v>1.928219921013222</v>
+        <v>0.6395101793333333</v>
       </c>
       <c r="R12">
-        <v>17.353979289119</v>
+        <v>5.755591613999999</v>
       </c>
       <c r="S12">
-        <v>0.02754479762764689</v>
+        <v>0.005957414823788839</v>
       </c>
       <c r="T12">
-        <v>0.02754479762764689</v>
+        <v>0.005957414823788837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.151</v>
+      </c>
+      <c r="H13">
+        <v>3.453</v>
+      </c>
+      <c r="I13">
+        <v>0.2375546279329019</v>
+      </c>
+      <c r="J13">
+        <v>0.2375546279329019</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009795</v>
+      </c>
+      <c r="N13">
+        <v>0.029385</v>
+      </c>
+      <c r="O13">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="P13">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="Q13">
+        <v>0.011274045</v>
+      </c>
+      <c r="R13">
+        <v>0.101466405</v>
+      </c>
+      <c r="S13">
+        <v>0.00010502438425152</v>
+      </c>
+      <c r="T13">
+        <v>0.0001050243842515199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6072163333333332</v>
+      </c>
+      <c r="H14">
+        <v>1.821649</v>
+      </c>
+      <c r="I14">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="J14">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.84402066666667</v>
+      </c>
+      <c r="N14">
+        <v>59.532062</v>
+      </c>
+      <c r="O14">
+        <v>0.8956779416773022</v>
+      </c>
+      <c r="P14">
+        <v>0.8956779416773021</v>
+      </c>
+      <c r="Q14">
+        <v>12.04961346780422</v>
+      </c>
+      <c r="R14">
+        <v>108.446521210238</v>
+      </c>
+      <c r="S14">
+        <v>0.1122492623477164</v>
+      </c>
+      <c r="T14">
+        <v>0.1122492623477164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6072163333333332</v>
+      </c>
+      <c r="H15">
+        <v>1.821649</v>
+      </c>
+      <c r="I15">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="J15">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N15">
+        <v>5.237639</v>
+      </c>
+      <c r="O15">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="P15">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="Q15">
+        <v>1.060126649634555</v>
+      </c>
+      <c r="R15">
+        <v>9.541139846710999</v>
+      </c>
+      <c r="S15">
+        <v>0.009875705534836521</v>
+      </c>
+      <c r="T15">
+        <v>0.009875705534836521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.104440333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.313321</v>
-      </c>
-      <c r="I13">
-        <v>0.22782735371401</v>
-      </c>
-      <c r="J13">
-        <v>0.22782735371401</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2786096666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.8358289999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.01929370322281843</v>
-      </c>
-      <c r="P13">
-        <v>0.01929370322281843</v>
-      </c>
-      <c r="Q13">
-        <v>0.3077077531232222</v>
-      </c>
-      <c r="R13">
-        <v>2.769369778109</v>
-      </c>
-      <c r="S13">
-        <v>0.004395633348598188</v>
-      </c>
-      <c r="T13">
-        <v>0.004395633348598189</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6072163333333332</v>
+      </c>
+      <c r="H16">
+        <v>1.821649</v>
+      </c>
+      <c r="I16">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="J16">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5556126666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.666838</v>
+      </c>
+      <c r="O16">
+        <v>0.02507808362071368</v>
+      </c>
+      <c r="P16">
+        <v>0.02507808362071367</v>
+      </c>
+      <c r="Q16">
+        <v>0.3373770862068888</v>
+      </c>
+      <c r="R16">
+        <v>3.036393775861999</v>
+      </c>
+      <c r="S16">
+        <v>0.00314286671194327</v>
+      </c>
+      <c r="T16">
+        <v>0.003142866711943269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6072163333333332</v>
+      </c>
+      <c r="H17">
+        <v>1.821649</v>
+      </c>
+      <c r="I17">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="J17">
+        <v>0.1253232407817384</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009795</v>
+      </c>
+      <c r="N17">
+        <v>0.029385</v>
+      </c>
+      <c r="O17">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="P17">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="Q17">
+        <v>0.005947683984999999</v>
+      </c>
+      <c r="R17">
+        <v>0.053529155865</v>
+      </c>
+      <c r="S17">
+        <v>5.54061872422233E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.54061872422233E-05</v>
       </c>
     </row>
   </sheetData>
